--- a/doc/角色功能数据权限清单V1.0.xlsx
+++ b/doc/角色功能数据权限清单V1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doc\全生命周期质量管理平台\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8287BC47-F6EB-4224-A18D-CE64C88FD5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E78266-34BE-4360-B9E5-D533B20BA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>产品负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>评论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,10 +171,6 @@
   </si>
   <si>
     <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,34 +179,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>“V”表示角色拥有当前功能的全部权限，“私有”表示角色只有当问题指派到自己的时候，才拥有的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>挂起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IQC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>量产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +212,26 @@
   </si>
   <si>
     <t>问题提出者（客户）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前指派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前供应商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,14 +250,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -294,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -317,59 +293,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,35 +312,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,897 +1029,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60562D81-15B9-41A9-A7AA-021229F7006F}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="6" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="1" t="s">
-        <v>33</v>
-      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6" t="s">
+      <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="8"/>
-      <c r="B37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="8"/>
-      <c r="B49" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="8"/>
-      <c r="B51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="8"/>
-      <c r="B52" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="8"/>
-      <c r="B53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-      <c r="B54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="8"/>
-      <c r="B55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A48:A56"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="A39:A47"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/doc/角色功能数据权限清单V1.0.xlsx
+++ b/doc/角色功能数据权限清单V1.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sofar-测试平台-质量管理平台\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sofar-测试平台-质量管理平台\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E78266-34BE-4360-B9E5-D533B20BA42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCBF49-BC37-46B7-A9FC-B3201B83D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{12C29574-0963-40F2-ACAA-B13D96E37E90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="53">
   <si>
     <t>产品负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">       角色                           
 功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +228,18 @@
   </si>
   <si>
     <t>全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前人=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +640,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:Y7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60562D81-15B9-41A9-A7AA-021229F7006F}">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,22 +1056,22 @@
   <sheetData>
     <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1071,46 +1079,46 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1118,23 +1126,25 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1147,20 +1157,20 @@
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1171,27 +1181,92 @@
         <v>34</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
